--- a/Kit_List.xlsx
+++ b/Kit_List.xlsx
@@ -5,17 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edouard Musabanganji\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pagui\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473A26E2-1DB1-4384-9B1D-337C45936384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F598B03D-9829-46A0-8A9E-20E29E560D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste complète" sheetId="1" r:id="rId1"/>
-    <sheet name="Pièces manquantes" sheetId="2" r:id="rId2"/>
-    <sheet name="Alternatives" sheetId="3" r:id="rId3"/>
+    <sheet name="Électronique essentiel" sheetId="4" r:id="rId2"/>
+    <sheet name="Électronique de puissance" sheetId="5" r:id="rId3"/>
+    <sheet name="Mécanique" sheetId="6" r:id="rId4"/>
+    <sheet name="Pièces manquantes" sheetId="2" r:id="rId5"/>
+    <sheet name="Alternatives" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="136">
   <si>
     <t>Nom</t>
   </si>
@@ -118,15 +121,6 @@
     <t>Entretoises hexagonales</t>
   </si>
   <si>
-    <t>Plaques acryliques</t>
-  </si>
-  <si>
-    <t>Acrylique</t>
-  </si>
-  <si>
-    <t>Découpes laser</t>
-  </si>
-  <si>
     <t>LED module</t>
   </si>
   <si>
@@ -323,13 +317,143 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>PCA9685 – Driver 16 servos, I2C</t>
+  </si>
+  <si>
+    <t>Modèle classique sur breakout board
+Tension moteurs supportée : 5 à 7,2 V</t>
+  </si>
+  <si>
+    <t>Pilotage haute précision pour tes 13 servos</t>
+  </si>
+  <si>
+    <t>ADS7830 – ADC 8 bits I2C</t>
+  </si>
+  <si>
+    <t>Mesure tension batteries (Freenove l’utilise pour l’indication niveau batterie)</t>
+  </si>
+  <si>
+    <t>Gyroscope + accéléromètre 6 axes</t>
+  </si>
+  <si>
+    <t>Capteur ultrason</t>
+  </si>
+  <si>
+    <t>LED RGB WS2812B</t>
+  </si>
+  <si>
+    <t>(module 8 LEDs) : optionnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caméra Raspberry Pi </t>
+  </si>
+  <si>
+    <t>(V1 ou V2 selon modèle)</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 4B</t>
+  </si>
+  <si>
+    <t>loc Step-Down 7,4 V → 6,0 V 8 A</t>
+  </si>
+  <si>
+    <t>(mieux que le 5 V, car les ES08MA préfèrent 6,0 V)</t>
+  </si>
+  <si>
+    <t>Servos</t>
+  </si>
+  <si>
+    <t>ES08MA II</t>
+  </si>
+  <si>
+    <t>S90 (servo bleu)</t>
+  </si>
+  <si>
+    <t>Visserie</t>
+  </si>
+  <si>
+    <t>M1.4×4 ou M1.4×5</t>
+  </si>
+  <si>
+    <t>M1.2×7</t>
+  </si>
+  <si>
+    <t>M3×12</t>
+  </si>
+  <si>
+    <t>M2.5×8</t>
+  </si>
+  <si>
+    <t>Entretoises laiton M2.5×14+6</t>
+  </si>
+  <si>
+    <t>Impression 3D</t>
+  </si>
+  <si>
+    <t>3d impression</t>
+  </si>
+  <si>
+    <t>Plaques en PETG ou ASA</t>
+  </si>
+  <si>
+    <t>(plus résistantes que l’acrylique)</t>
+  </si>
+  <si>
+    <t>optionnel</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/1005009258249036.html?src=google&amp;pdp_npi=4%40dis!EUR!7.98!3.79!!!!!%40!12000048510143738!ppc!!!&amp;snps=y&amp;snpsid=1&amp;src=google&amp;albch=shopping&amp;acnt=752-015-9270&amp;isdl=y&amp;slnk=&amp;plac=&amp;mtctp=&amp;albbt=Google_7_shopping&amp;aff_platform=google&amp;aff_short_key=_oDeeeiG&amp;gclsrc=aw.ds&amp;&amp;albagn=888888&amp;&amp;ds_e_adid=775577283979&amp;ds_e_matchtype=search&amp;ds_e_device=c&amp;ds_e_network=g&amp;ds_e_product_group_id=2441104098146&amp;ds_e_product_id=fr1005009258249036&amp;ds_e_product_merchant_id=5551326180&amp;ds_e_product_country=FR&amp;ds_e_product_language=fr&amp;ds_e_product_channel=online&amp;ds_e_product_store_id=&amp;ds_url_v=2&amp;albcp=23051153924&amp;albag=186908086258&amp;isSmbAutoCall=false&amp;needSmbHouyi=false&amp;gad_source=1&amp;gad_campaignid=23051153924&amp;gbraid=0AAAAA_eFwRArQHfp8onatsApQMvKh6NuM&amp;gclid=Cj0KCQiAi9rJBhCYARIsALyPDtuLUZtS93XabhW3CKDCX7XML2yMLkI-TkN-QJ89spG1qOBbeT2roo8aAk_5EALw_wcB</t>
+  </si>
+  <si>
+    <t>Raspberry Pi</t>
+  </si>
+  <si>
+    <t>Carte Raspberry Pi 4B</t>
+  </si>
+  <si>
+    <t>https://www.raspberrypi.com/products/raspberry-pi-4-model-b/</t>
+  </si>
+  <si>
+    <t>Support 2×18650</t>
+  </si>
+  <si>
+    <t>Support de Batterie</t>
+  </si>
+  <si>
+    <t>2× Batteries 18650 high drain</t>
+  </si>
+  <si>
+    <t>Batterie Lithium-ion Rechargeable</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/p/tesla-landing/index.html?scenario=c_ppc_item_bridge&amp;productId=1005009052354893&amp;_immersiveMode=true&amp;withMainCard=true&amp;src=google&amp;aff_platform=true&amp;isdl=y&amp;src=google&amp;albch=shopping&amp;acnt=248-630-5778&amp;isdl=y&amp;slnk=&amp;plac=&amp;mtctp=&amp;albbt=Google_7_shopping&amp;aff_platform=google&amp;aff_short_key=UneMJZVf&amp;gclsrc=aw.ds&amp;&amp;albagn=888888&amp;&amp;ds_e_adid=&amp;ds_e_matchtype=&amp;ds_e_device=c&amp;ds_e_network=x&amp;ds_e_product_group_id=&amp;ds_e_product_id=fr1005009052354893&amp;ds_e_product_merchant_id=5590665624&amp;ds_e_product_country=FR&amp;ds_e_product_language=fr&amp;ds_e_product_channel=online&amp;ds_e_product_store_id=&amp;ds_url_v=2&amp;albcp=19000710609&amp;albag=&amp;isSmbAutoCall=false&amp;needSmbHouyi=false&amp;gad_source=1&amp;gad_campaignid=17725339642&amp;gbraid=0AAAAACWaBwfM4qMCLKi5VlvWrlP4wLOKV&amp;gclid=Cj0KCQiAi9rJBhCYARIsALyPDttv0lpjlzrlDdVd6hKgSvRrFt0jre9J8kB-3g2CCN5_AZzEGR7bUhoaAu4YEALw_wcB</t>
+  </si>
+  <si>
+    <t>Step-down 7,4V→6V 8A</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/1005006742115510.html?pdp_npi=4%40dis%21EUR%212.72%211.29%21%21%21%21%21%40%2112000038159148376%21ppc%21%21%21&amp;utm_source=chatgpt.com</t>
+  </si>
+  <si>
+    <t>Step-down 7,4V→5V 5A</t>
+  </si>
+  <si>
+    <t>USB-C / sortie fils</t>
+  </si>
+  <si>
+    <t>Alimentation Raspberry Pi séparé des servos</t>
+  </si>
+  <si>
+    <t>Alimentation servos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,8 +484,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +503,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,12 +525,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,13 +844,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.44140625" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
@@ -729,20 +878,20 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
@@ -759,14 +908,14 @@
         <v>12.36</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
@@ -779,18 +928,18 @@
         <v>0.99</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G23" si="0">F3*B3</f>
+        <f t="shared" ref="G3:G28" si="0">F3*B3</f>
         <v>0.99</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>5</v>
       </c>
       <c r="C4" t="s">
@@ -811,7 +960,7 @@
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>7</v>
       </c>
       <c r="C5" t="s">
@@ -832,7 +981,7 @@
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>12</v>
       </c>
       <c r="C6" t="s">
@@ -849,14 +998,14 @@
         <v>11.879999999999999</v>
       </c>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>12</v>
       </c>
       <c r="C7" t="s">
@@ -874,7 +1023,7 @@
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>8</v>
       </c>
       <c r="C8" t="s">
@@ -892,7 +1041,7 @@
       <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>20</v>
       </c>
       <c r="C9" t="s">
@@ -908,16 +1057,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10">
+        <v>116</v>
+      </c>
+      <c r="B10" s="5">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>118</v>
+      </c>
+      <c r="E10" t="s">
+        <v>119</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -926,16 +1078,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>120</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -944,34 +1099,40 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="D12" t="s">
-        <v>34</v>
+      <c r="F12">
+        <v>0.99</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.99</v>
+      </c>
+      <c r="H12" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
@@ -980,16 +1141,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
@@ -998,16 +1159,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
@@ -1016,143 +1177,247 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
         <v>42</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22">
+        <f>F22*B22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="9">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="8">
+        <f t="shared" ref="G23:G25" si="1">F23*B23</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="5">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24">
+        <v>0.99</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>1.98</v>
+      </c>
+      <c r="H24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26">
+        <v>1.29</v>
+      </c>
+      <c r="G26">
+        <f>F26*B26</f>
+        <v>1.29</v>
+      </c>
+      <c r="H26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
         <v>53</v>
       </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22">
+      <c r="G28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G25">
-        <f xml:space="preserve"> SUM(G2:G23)</f>
-        <v>25.229999999999997</v>
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30">
+        <f xml:space="preserve"> SUM(G2:G28)</f>
+        <v>29.489999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -1162,12 +1427,251 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6426D34D-364A-4E29-97E4-584983C650FD}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E24849-763F-4B68-B65E-7ED7CEABD0F9}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D34289D-7DC3-4786-B70E-F239C3BA964C}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1177,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -1185,30 +1689,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
         <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1216,26 +1720,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
         <v>65</v>
-      </c>
-      <c r="B1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1243,83 +1753,83 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
         <v>72</v>
-      </c>
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
         <v>85</v>
-      </c>
-      <c r="B7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
